--- a/src/ProductData.xlsx
+++ b/src/ProductData.xlsx
@@ -62,7 +62,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gaygay</t>
+    <t>包黑人满意</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -412,7 +412,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
